--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2654.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2654.xlsx
@@ -354,7 +354,7 @@
         <v>1.472424956330026</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>1.33744554115923</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2654.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2654.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.8676421187313573</v>
+        <v>1.938207507133484</v>
       </c>
       <c r="B1">
-        <v>1.472424956330026</v>
+        <v>2.187227487564087</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>2.13093376159668</v>
       </c>
       <c r="D1">
-        <v>1.33744554115923</v>
+        <v>2.549808025360107</v>
       </c>
       <c r="E1">
-        <v>0.8428537311278349</v>
+        <v>2.06237268447876</v>
       </c>
     </row>
   </sheetData>
